--- a/ratecard/ratecards.xlsx
+++ b/ratecard/ratecards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,187 +446,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>platformId</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>platformId</t>
+          <t>rateCardType</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>rateCardType</t>
+          <t>paas</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>paasFee_fixedFee</t>
+          <t>saas</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>paasFee_baseFee</t>
+          <t>apicount</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>paasFee_validityFrom</t>
+          <t>volCount</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>paasFee_validityTo</t>
+          <t>Adfee</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>saasFee_fixedFee</t>
+          <t>adRevenueShare</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saasFee_validityFrom</t>
+          <t>consumerRevenueShare</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>saasFee_validityTo</t>
+          <t>json</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>apiCountFee_validityFrom</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>apiCountFee_validityTo</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>apiCountFee_perApiFee</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>apiCountFee_apiLimit</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>apiCountFee_baseFee</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>dataVolumeFee_validityFrom</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>dataVolumeFee_validityTo</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>dataVolumeFee_perVolumeFee</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>dataVolumeFee_volumeLimit</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>dataVolumeFee_fixedFee</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>dataVolumeFee_dataUnitType</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>dataTransferFee_validityFrom</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>dataTransferFee_validityTo</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>dataTransferFee_perVolumeFee</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>dataTransferFee_volumeLimit</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>dataTransferFee_fixedFee</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>dataTransferFee_dataUnitType</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>dataSharable</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>isActive</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>contextId</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>billingCycleUnit</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>billingCycle</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>eligibleForRoyalty</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>comment</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>rateCardFor</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>json</t>
+          <t>RateCardID</t>
         </is>
       </c>
     </row>
@@ -638,168 +508,71 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>opvkkkj</t>
+          <t>ratecard1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>this is for my xpx product</t>
+          <t>664afc3caf2dfa4e7eeda5db</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>64e77ec2fc8337558d722547</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>SILVER</t>
-        </is>
+          <t>TRIAL</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1665413598.391</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1731196800</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1665413598.391</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1731196800</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1646765091.204</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1646765091.204</v>
-      </c>
-      <c r="O2" t="n">
-        <v>122.5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>12</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1646765091.204</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1646765091.204</v>
-      </c>
-      <c r="T2" t="n">
-        <v>122.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>25</v>
-      </c>
-      <c r="V2" t="n">
-        <v>12</v>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>BYTE</t>
-        </is>
-      </c>
-      <c r="X2" t="n">
-        <v>1646765091.204</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1646765091.204</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>122.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>BYTE</t>
-        </is>
-      </c>
-      <c r="AD2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="AF2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>Context_Id</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>MINUTES</t>
-        </is>
-      </c>
-      <c r="AI2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Comment Section.</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>PRODUCT</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>{
-    "name": "opvkkkj",
-    "description": "Ratecard description for Ratecard_opvkkkj",
-    "platformId": "64e77ec2fc8337558d722547",
-    "rateCardType": "SILVER",
+    "name": "ratecard1",
+    "description": "Ratecard description for Ratecard_ratecard1",
+    "platformId": "664afc3caf2dfa4e7eeda5db",
+    "rateCardType": "TRIAL",
     "paasFee": {
-        "fixedFee": 110,
+        "fixedFee": 0,
         "baseFee": "0.0",
-        "validityFrom": 1724421379.727174,
-        "validityTo": 1819029379.727184
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
     },
     "saasFee": {
-        "fixedFee": 120,
-        "validityFrom": 1724421379.727174,
-        "validityTo": 1819029379.727184
+        "fixedFee": 0,
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
     },
     "apiCountFee": {
-        "validityFrom": 1724421379.727174,
-        "validityTo": 1819029379.727184,
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
         "perApiFee": 122.5,
         "apiLimit": 25,
         "baseFee": 12
     },
     "dataVolumeFee": {
-        "validityFrom": 1724421379.727174,
-        "validityTo": 1819029379.727184,
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
         "perVolumeFee": 122.5,
         "volumeLimit": 25,
-        "fixedFee": 12,
+        "fixedFee": 0,
         "dataUnitType": "BYTE"
     },
     "currency": "INR",
@@ -813,6 +586,747 @@
 }</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>66d084c7b1dbc9702f40479c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>668e83dcc8fea21f886ddd4e</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ratecard2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>665afc3caf2dfa4e7eeda5db</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SILVER</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>{
+    "name": "ratecard2",
+    "description": "Ratecard description for Ratecard_ratecard2",
+    "platformId": "665afc3caf2dfa4e7eeda5db",
+    "rateCardType": "SILVER",
+    "paasFee": {
+        "fixedFee": 10,
+        "baseFee": "0.0",
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
+    },
+    "saasFee": {
+        "fixedFee": 11,
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
+    },
+    "apiCountFee": {
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
+        "perApiFee": 122.5,
+        "apiLimit": 25,
+        "baseFee": 12
+    },
+    "dataVolumeFee": {
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
+        "perVolumeFee": 122.5,
+        "volumeLimit": 25,
+        "fixedFee": 13,
+        "dataUnitType": "BYTE"
+    },
+    "currency": "INR",
+    "isActive": true,
+    "contextId": "Context_Id",
+    "billingCycleUnit": "MINUTES",
+    "billingCycle": "2",
+    "eligibleForRoyalty": true,
+    "comment": "Comment Section.",
+    "rateCardFor": "PRODUCT"
+}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>66d084c883d08979e96ceddf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6675217b72fb483cdd3be10a</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ratecard3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>666afc3caf2dfa4e7eeda5db</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>{
+    "name": "ratecard3",
+    "description": "Ratecard description for Ratecard_ratecard3",
+    "platformId": "666afc3caf2dfa4e7eeda5db",
+    "rateCardType": "GOLD",
+    "paasFee": {
+        "fixedFee": 15,
+        "baseFee": "0.0",
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
+    },
+    "saasFee": {
+        "fixedFee": 16,
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
+    },
+    "apiCountFee": {
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
+        "perApiFee": 122.5,
+        "apiLimit": 25,
+        "baseFee": 12
+    },
+    "dataVolumeFee": {
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
+        "perVolumeFee": 122.5,
+        "volumeLimit": 25,
+        "fixedFee": 18,
+        "dataUnitType": "BYTE"
+    },
+    "currency": "INR",
+    "isActive": true,
+    "contextId": "Context_Id",
+    "billingCycleUnit": "MINUTES",
+    "billingCycle": "2",
+    "eligibleForRoyalty": true,
+    "comment": "Comment Section.",
+    "rateCardFor": "PRODUCT"
+}</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>66d084c883d08979e96cede0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>668c30cb30b0b830ec5cec56</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ratecard4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>667afc3caf2dfa4e7eeda5db</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PLATINUM</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F5" t="n">
+        <v>31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>32</v>
+      </c>
+      <c r="H5" t="n">
+        <v>33</v>
+      </c>
+      <c r="I5" t="n">
+        <v>34</v>
+      </c>
+      <c r="J5" t="n">
+        <v>35</v>
+      </c>
+      <c r="K5" t="n">
+        <v>36</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>{
+    "name": "ratecard4",
+    "description": "Ratecard description for Ratecard_ratecard4",
+    "platformId": "667afc3caf2dfa4e7eeda5db",
+    "rateCardType": "PLATINUM",
+    "paasFee": {
+        "fixedFee": 30,
+        "baseFee": "0.0",
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
+    },
+    "saasFee": {
+        "fixedFee": 31,
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
+    },
+    "apiCountFee": {
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
+        "perApiFee": 122.5,
+        "apiLimit": 25,
+        "baseFee": 12
+    },
+    "dataVolumeFee": {
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
+        "perVolumeFee": 122.5,
+        "volumeLimit": 25,
+        "fixedFee": 33,
+        "dataUnitType": "BYTE"
+    },
+    "currency": "INR",
+    "isActive": true,
+    "contextId": "Context_Id",
+    "billingCycleUnit": "MINUTES",
+    "billingCycle": "2",
+    "eligibleForRoyalty": true,
+    "comment": "Comment Section.",
+    "rateCardFor": "PRODUCT"
+}</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>66d084c8b1dbc9702f40479d</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>668c0e7b30b0b830ec5cebf7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ratecard5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>668afc3caf2dfa4e7eeda5db</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TRIAL</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>{
+    "name": "ratecard5",
+    "description": "Ratecard description for Ratecard_ratecard5",
+    "platformId": "668afc3caf2dfa4e7eeda5db",
+    "rateCardType": "TRIAL",
+    "paasFee": {
+        "fixedFee": 0,
+        "baseFee": "0.0",
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
+    },
+    "saasFee": {
+        "fixedFee": 0,
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
+    },
+    "apiCountFee": {
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
+        "perApiFee": 122.5,
+        "apiLimit": 25,
+        "baseFee": 12
+    },
+    "dataVolumeFee": {
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
+        "perVolumeFee": 122.5,
+        "volumeLimit": 25,
+        "fixedFee": 0,
+        "dataUnitType": "BYTE"
+    },
+    "currency": "INR",
+    "isActive": true,
+    "contextId": "Context_Id",
+    "billingCycleUnit": "MINUTES",
+    "billingCycle": "2",
+    "eligibleForRoyalty": true,
+    "comment": "Comment Section.",
+    "rateCardFor": "PRODUCT"
+}</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>66d084c9b1dbc9702f40479e</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>668c333430b0b830ec5cec60</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ratecard6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>669afc3caf2dfa4e7eeda5db</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SILVER</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" t="n">
+        <v>12</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>{
+    "name": "ratecard6",
+    "description": "Ratecard description for Ratecard_ratecard6",
+    "platformId": "669afc3caf2dfa4e7eeda5db",
+    "rateCardType": "SILVER",
+    "paasFee": {
+        "fixedFee": 10,
+        "baseFee": "0.0",
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
+    },
+    "saasFee": {
+        "fixedFee": 11,
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
+    },
+    "apiCountFee": {
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
+        "perApiFee": 122.5,
+        "apiLimit": 25,
+        "baseFee": 12
+    },
+    "dataVolumeFee": {
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
+        "perVolumeFee": 122.5,
+        "volumeLimit": 25,
+        "fixedFee": 13,
+        "dataUnitType": "BYTE"
+    },
+    "currency": "INR",
+    "isActive": true,
+    "contextId": "Context_Id",
+    "billingCycleUnit": "MINUTES",
+    "billingCycle": "2",
+    "eligibleForRoyalty": true,
+    "comment": "Comment Section.",
+    "rateCardFor": "PRODUCT"
+}</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>66d084c983d08979e96cede1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>668c2e3730b0b830ec5cec4e</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ratecard7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>670afc3caf2dfa4e7eeda5db</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17</v>
+      </c>
+      <c r="H8" t="n">
+        <v>18</v>
+      </c>
+      <c r="I8" t="n">
+        <v>19</v>
+      </c>
+      <c r="J8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K8" t="n">
+        <v>21</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>{
+    "name": "ratecard7",
+    "description": "Ratecard description for Ratecard_ratecard7",
+    "platformId": "670afc3caf2dfa4e7eeda5db",
+    "rateCardType": "GOLD",
+    "paasFee": {
+        "fixedFee": 15,
+        "baseFee": "0.0",
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
+    },
+    "saasFee": {
+        "fixedFee": 16,
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
+    },
+    "apiCountFee": {
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
+        "perApiFee": 122.5,
+        "apiLimit": 25,
+        "baseFee": 12
+    },
+    "dataVolumeFee": {
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
+        "perVolumeFee": 122.5,
+        "volumeLimit": 25,
+        "fixedFee": 18,
+        "dataUnitType": "BYTE"
+    },
+    "currency": "INR",
+    "isActive": true,
+    "contextId": "Context_Id",
+    "billingCycleUnit": "MINUTES",
+    "billingCycle": "2",
+    "eligibleForRoyalty": true,
+    "comment": "Comment Section.",
+    "rateCardFor": "PRODUCT"
+}</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>66d084c9b1dbc9702f40479f</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6694b76bc8fea21f886ddd65</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ratecard8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>671afc3caf2dfa4e7eeda5db</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PLATINUM</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>30</v>
+      </c>
+      <c r="F9" t="n">
+        <v>31</v>
+      </c>
+      <c r="G9" t="n">
+        <v>32</v>
+      </c>
+      <c r="H9" t="n">
+        <v>33</v>
+      </c>
+      <c r="I9" t="n">
+        <v>34</v>
+      </c>
+      <c r="J9" t="n">
+        <v>35</v>
+      </c>
+      <c r="K9" t="n">
+        <v>36</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>{
+    "name": "ratecard8",
+    "description": "Ratecard description for Ratecard_ratecard8",
+    "platformId": "671afc3caf2dfa4e7eeda5db",
+    "rateCardType": "PLATINUM",
+    "paasFee": {
+        "fixedFee": 30,
+        "baseFee": "0.0",
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
+    },
+    "saasFee": {
+        "fixedFee": 31,
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
+    },
+    "apiCountFee": {
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
+        "perApiFee": 122.5,
+        "apiLimit": 25,
+        "baseFee": 12
+    },
+    "dataVolumeFee": {
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
+        "perVolumeFee": 122.5,
+        "volumeLimit": 25,
+        "fixedFee": 33,
+        "dataUnitType": "BYTE"
+    },
+    "currency": "INR",
+    "isActive": true,
+    "contextId": "Context_Id",
+    "billingCycleUnit": "MINUTES",
+    "billingCycle": "2",
+    "eligibleForRoyalty": true,
+    "comment": "Comment Section.",
+    "rateCardFor": "PRODUCT"
+}</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>66d084ca83d08979e96cede2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>668c13be30b0b830ec5cec07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ratecard9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>672afc3caf2dfa4e7eeda5db</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TRIAL</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>{
+    "name": "ratecard9",
+    "description": "Ratecard description for Ratecard_ratecard9",
+    "platformId": "672afc3caf2dfa4e7eeda5db",
+    "rateCardType": "TRIAL",
+    "paasFee": {
+        "fixedFee": 0,
+        "baseFee": "0.0",
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
+    },
+    "saasFee": {
+        "fixedFee": 0,
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268
+    },
+    "apiCountFee": {
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
+        "perApiFee": 122.5,
+        "apiLimit": 25,
+        "baseFee": 12
+    },
+    "dataVolumeFee": {
+        "validityFrom": 1724941432.56267,
+        "validityTo": 1819549432.56268,
+        "perVolumeFee": 122.5,
+        "volumeLimit": 25,
+        "fixedFee": 0,
+        "dataUnitType": "BYTE"
+    },
+    "currency": "INR",
+    "isActive": true,
+    "contextId": "Context_Id",
+    "billingCycleUnit": "MINUTES",
+    "billingCycle": "2",
+    "eligibleForRoyalty": true,
+    "comment": "Comment Section.",
+    "rateCardFor": "PRODUCT"
+}</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>66d084cab1dbc9702f4047a0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
